--- a/biology/Mycologie/Catillariaceae/Catillariaceae.xlsx
+++ b/biology/Mycologie/Catillariaceae/Catillariaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Catillariaceae sont une famille de champignons lichénisés associés à des algues vertes. Dans sa délimitation actuelle, la famille comporte environ 260 espèces[1] de lichens surtout encroûtants, vivant sur les écorces ou les rochers, essentiellement dans les régions tempérées[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Catillariaceae sont une famille de champignons lichénisés associés à des algues vertes. Dans sa délimitation actuelle, la famille comporte environ 260 espèces de lichens surtout encroûtants, vivant sur les écorces ou les rochers, essentiellement dans les régions tempérées.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Myconet[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Myconet :
 Austrolecia
 Catillaria
 Halecania
@@ -521,7 +535,7 @@
 Solenopsora
 Sporastatia
 Xanthopsorella
-Les études de phylogénie moléculaire montrent que plusieurs genres actuellement attribués à cette famille, et tout particulièrement le genre Catillaria lui-même, sont polyphylétiques et nécessitent par conséquent une révision ; la délimitation entre Catillariaceae et Ramalinaceae, notamment, demande à être éclaircie[4],[2]. Selon les auteurs, le genre Toninia appartient soit aux Catillariaceae, soit aux Ramalinaceae.
+Les études de phylogénie moléculaire montrent que plusieurs genres actuellement attribués à cette famille, et tout particulièrement le genre Catillaria lui-même, sont polyphylétiques et nécessitent par conséquent une révision ; la délimitation entre Catillariaceae et Ramalinaceae, notamment, demande à être éclaircie,. Selon les auteurs, le genre Toninia appartient soit aux Catillariaceae, soit aux Ramalinaceae.
 </t>
         </is>
       </c>
